--- a/results/CV/2024/3_category/report_df.xlsx
+++ b/results/CV/2024/3_category/report_df.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan_R\OneDrive\Desktop\REPO\TS_ANALYSIS\results\CV\2024\3_category\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398C5A8F-0071-47A1-BB7A-60EBF648427A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8982315-C1B0-41AE-8F8B-B0D816F1DBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="3345" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,16 +432,16 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -482,7 +482,7 @@
         <v>120062</v>
       </c>
       <c r="E2" s="3">
-        <v>45293.200694444437</v>
+        <v>45376.289583333331</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -499,13 +499,13 @@
         <v>120062</v>
       </c>
       <c r="C3" s="3">
-        <v>45293.200694444437</v>
+        <v>45376.289583333331</v>
       </c>
       <c r="D3" s="2">
         <v>228175</v>
       </c>
       <c r="E3" s="3">
-        <v>45295.354166666657</v>
+        <v>45451.368055555547</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
@@ -522,13 +522,13 @@
         <v>228175</v>
       </c>
       <c r="C4" s="3">
-        <v>45295.354166666657</v>
+        <v>45451.368055555547</v>
       </c>
       <c r="D4" s="2">
         <v>365980</v>
       </c>
       <c r="E4" s="3">
-        <v>45297.180555555547</v>
+        <v>45547.065972222219</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
@@ -545,13 +545,13 @@
         <v>365980</v>
       </c>
       <c r="C5" s="3">
-        <v>45297.180555555547</v>
+        <v>45547.065972222219</v>
       </c>
       <c r="D5" s="2">
         <v>524350</v>
       </c>
       <c r="E5" s="3">
-        <v>45297.271527777782</v>
+        <v>45657.045138888891</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
